--- a/inputfiles/Kortright_ALL_CHEMSUMM.xlsx
+++ b/inputfiles/Kortright_ALL_CHEMSUMM.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\SubsurfaceSinks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680D9AF-8267-4ED6-A08A-FF64A4AF1B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDB0E7-C0DE-4E80-A108-61ED21CCA9F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -39,18 +28,36 @@
   <commentList>
     <comment ref="S2" authorId="0" shapeId="0" xr:uid="{F6221951-BCAE-4089-AD58-D4EE39096D13}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Zhao, Y. H., Abraham, M. H. and Zissimos, A. M.: Determination of McGowan Volumes for Ions and Correlation with van der Waals Volumes, J. Chem. Inf. Comput. Sci., 43(6), 1848–1854, doi:10.1021/ci0341114, 2003.</t>
+        </r>
       </text>
     </comment>
     <comment ref="K3" authorId="1" shapeId="0" xr:uid="{100B8E5A-6FAE-4951-B4D0-372BCD353B7D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     =Log(71) from Rhodes-Dicker</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -58,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Compound</t>
   </si>
@@ -166,6 +173,45 @@
   </si>
   <si>
     <t>95-14-7</t>
+  </si>
+  <si>
+    <t>MeltPoint</t>
+  </si>
+  <si>
+    <t>LogSw(mol/m³)</t>
+  </si>
+  <si>
+    <t>WatSol</t>
+  </si>
+  <si>
+    <t>LogPL (Pa)</t>
+  </si>
+  <si>
+    <t>VapPress</t>
+  </si>
+  <si>
+    <t>dUaw</t>
+  </si>
+  <si>
+    <t>dUow</t>
+  </si>
+  <si>
+    <t>LogKoa</t>
+  </si>
+  <si>
+    <t>dUoa</t>
+  </si>
+  <si>
+    <t>AirQOHRateConst</t>
+  </si>
+  <si>
+    <t>SedHL</t>
+  </si>
+  <si>
+    <t>FilmHL</t>
+  </si>
+  <si>
+    <t>115-96-8</t>
   </si>
 </sst>
 </file>
@@ -665,7 +711,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -677,6 +723,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1052,32 +1101,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P2" sqref="P2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" customWidth="1"/>
-    <col min="28" max="28" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1256,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1277,7 +1326,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1348,7 +1397,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1461,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1476,7 +1525,7 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1540,7 +1589,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1605,67 +1654,288 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9">
+        <v>285.48200000000003</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1.6559999999999999E-6</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.7243999999999999E-2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2.9E-11</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1440</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2880</v>
+      </c>
+      <c r="H9" s="10">
+        <v>144</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="J9" s="9">
+        <v>-6.29</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="L9" s="10">
+        <v>999</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>7.18</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="S9" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I12" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I19" s="11"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I20" s="11"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I21" s="3"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>285.48200000000003</v>
+      </c>
+      <c r="E22">
+        <v>-45</v>
+      </c>
+      <c r="F22">
+        <v>1.42</v>
+      </c>
+      <c r="G22">
+        <v>26.51</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1.26</v>
+      </c>
+      <c r="J22">
+        <v>-6.29</v>
+      </c>
+      <c r="K22">
+        <v>8205.16</v>
+      </c>
+      <c r="L22">
+        <v>1.56</v>
+      </c>
+      <c r="M22">
+        <v>12159.78</v>
+      </c>
+      <c r="N22">
+        <v>7.88</v>
+      </c>
+      <c r="O22">
+        <v>-69894.210000000006</v>
+      </c>
+      <c r="P22" s="11">
+        <v>2.9E-11</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>1.1E-12</v>
+      </c>
+      <c r="R22" s="11">
+        <v>1440</v>
+      </c>
+      <c r="S22" s="11">
+        <v>2880</v>
+      </c>
+      <c r="T22" s="11">
+        <v>13000</v>
+      </c>
+      <c r="U22">
+        <v>7.18</v>
+      </c>
+      <c r="V22">
+        <v>2.09</v>
+      </c>
+      <c r="W22">
+        <v>0.03</v>
+      </c>
+      <c r="X22">
+        <v>0.98</v>
+      </c>
+      <c r="Y22">
+        <v>1.76</v>
+      </c>
+      <c r="Z22">
+        <v>3.28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputfiles/Kortright_ALL_CHEMSUMM.xlsx
+++ b/inputfiles/Kortright_ALL_CHEMSUMM.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDB0E7-C0DE-4E80-A108-61ED21CCA9F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019339BF-5CAE-4C57-BDDB-FCDD0594AB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Compound</t>
   </si>
@@ -173,45 +184,6 @@
   </si>
   <si>
     <t>95-14-7</t>
-  </si>
-  <si>
-    <t>MeltPoint</t>
-  </si>
-  <si>
-    <t>LogSw(mol/m³)</t>
-  </si>
-  <si>
-    <t>WatSol</t>
-  </si>
-  <si>
-    <t>LogPL (Pa)</t>
-  </si>
-  <si>
-    <t>VapPress</t>
-  </si>
-  <si>
-    <t>dUaw</t>
-  </si>
-  <si>
-    <t>dUow</t>
-  </si>
-  <si>
-    <t>LogKoa</t>
-  </si>
-  <si>
-    <t>dUoa</t>
-  </si>
-  <si>
-    <t>AirQOHRateConst</t>
-  </si>
-  <si>
-    <t>SedHL</t>
-  </si>
-  <si>
-    <t>FilmHL</t>
-  </si>
-  <si>
-    <t>115-96-8</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1077,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:T9"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,94 +1716,21 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T18" t="s">
-        <v>46</v>
-      </c>
-      <c r="U18" t="s">
-        <v>7</v>
-      </c>
-      <c r="V18" t="s">
-        <v>8</v>
-      </c>
-      <c r="W18" t="s">
-        <v>9</v>
-      </c>
-      <c r="X18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I19" s="11"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1840,7 +1739,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I20" s="11"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1849,7 +1748,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I21" s="3"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -1857,85 +1756,13 @@
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>285.48200000000003</v>
-      </c>
-      <c r="E22">
-        <v>-45</v>
-      </c>
-      <c r="F22">
-        <v>1.42</v>
-      </c>
-      <c r="G22">
-        <v>26.51</v>
-      </c>
-      <c r="H22">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1.26</v>
-      </c>
-      <c r="J22">
-        <v>-6.29</v>
-      </c>
-      <c r="K22">
-        <v>8205.16</v>
-      </c>
-      <c r="L22">
-        <v>1.56</v>
-      </c>
-      <c r="M22">
-        <v>12159.78</v>
-      </c>
-      <c r="N22">
-        <v>7.88</v>
-      </c>
-      <c r="O22">
-        <v>-69894.210000000006</v>
-      </c>
-      <c r="P22" s="11">
-        <v>2.9E-11</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>1.1E-12</v>
-      </c>
-      <c r="R22" s="11">
-        <v>1440</v>
-      </c>
-      <c r="S22" s="11">
-        <v>2880</v>
-      </c>
-      <c r="T22" s="11">
-        <v>13000</v>
-      </c>
-      <c r="U22">
-        <v>7.18</v>
-      </c>
-      <c r="V22">
-        <v>2.09</v>
-      </c>
-      <c r="W22">
-        <v>0.03</v>
-      </c>
-      <c r="X22">
-        <v>0.98</v>
-      </c>
-      <c r="Y22">
-        <v>1.76</v>
-      </c>
-      <c r="Z22">
-        <v>3.28</v>
-      </c>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputfiles/Kortright_ALL_CHEMSUMM.xlsx
+++ b/inputfiles/Kortright_ALL_CHEMSUMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019339BF-5CAE-4C57-BDDB-FCDD0594AB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AFA3A-B9BF-4471-9EFA-7A9D88627CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
